--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="6990"/>
+    <workbookView windowWidth="16185" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -115,13 +115,31 @@
     <t>item.xlsx</t>
   </si>
   <si>
-    <t>Skill.TbBuff</t>
-  </si>
-  <si>
-    <t>Buff</t>
-  </si>
-  <si>
-    <t>Buff.xlsx</t>
+    <t>buff.TbBuff</t>
+  </si>
+  <si>
+    <t>BuffCfg</t>
+  </si>
+  <si>
+    <t>Buff/Buff.xlsx</t>
+  </si>
+  <si>
+    <t>unit.TbHero</t>
+  </si>
+  <si>
+    <t>HeroCfg</t>
+  </si>
+  <si>
+    <t>Unit/Hero.xlsx</t>
+  </si>
+  <si>
+    <t>unit.TbUnit</t>
+  </si>
+  <si>
+    <t>UnitCfg</t>
+  </si>
+  <si>
+    <t>Unit/Unit.xlsx</t>
   </si>
 </sst>
 </file>
@@ -129,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,10 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,85 +200,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,17 +260,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,181 +326,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,11 +516,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,69 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,34 +631,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,97 +667,97 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,13 +1090,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1218,6 +1236,34 @@
         <v>35</v>
       </c>
     </row>
+    <row r="6" customFormat="1" spans="2:5">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:5">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16185" windowHeight="11835"/>
+    <workbookView windowWidth="17400" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Unit/Unit.xlsx</t>
+  </si>
+  <si>
+    <t>skill.TbSkill</t>
+  </si>
+  <si>
+    <t>SkillCfg</t>
+  </si>
+  <si>
+    <t>Skill/Skill.xlsx</t>
   </si>
 </sst>
 </file>
@@ -148,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,6 +177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -176,7 +193,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +260,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -198,31 +275,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,76 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,181 +335,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,39 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,11 +540,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +595,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -619,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,13 +1099,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1264,6 +1273,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="8" customFormat="1" spans="2:5">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17400" windowHeight="7980"/>
+    <workbookView windowWidth="21585" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -177,33 +177,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,27 +215,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -252,16 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +251,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -290,6 +290,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,15 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,37 +335,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,19 +425,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,115 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,30 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,6 +543,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,17 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -620,6 +605,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,145 +628,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21585" windowHeight="6885"/>
+    <workbookView windowWidth="17970" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Skill/Skill.xlsx</t>
+  </si>
+  <si>
+    <t>skill.TbTarget</t>
+  </si>
+  <si>
+    <t>TargetCfg</t>
+  </si>
+  <si>
+    <t>Skill/Target.xlsx</t>
   </si>
 </sst>
 </file>
@@ -156,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -184,6 +193,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -192,54 +259,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,62 +309,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,19 +344,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +464,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,139 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,8 +535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,20 +558,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,8 +609,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,21 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,16 +649,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,115 +667,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,13 +1108,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -1287,6 +1296,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="9" customFormat="1" spans="2:5">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
